--- a/data-raw/fisher.barley.xlsx
+++ b/data-raw/fisher.barley.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0127FDD2-01FE-4F76-80AE-2634EAB58623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="12" windowWidth="15168" windowHeight="6468"/>
+    <workbookView xWindow="3620" yWindow="2580" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,14 +114,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +162,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -225,7 +234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -398,16 +407,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -421,7 +430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>81</v>
       </c>
@@ -435,7 +444,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>80.7</v>
       </c>
@@ -449,7 +458,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>146.6</v>
       </c>
@@ -463,7 +472,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>100.4</v>
       </c>
@@ -477,7 +486,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>82.3</v>
       </c>
@@ -491,7 +500,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>103.1</v>
       </c>
@@ -505,7 +514,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>119.8</v>
       </c>
@@ -519,7 +528,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>98.9</v>
       </c>
@@ -533,7 +542,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>98.9</v>
       </c>
@@ -547,7 +556,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>66.400000000000006</v>
       </c>
@@ -561,7 +570,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>86.9</v>
       </c>
@@ -575,7 +584,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>67.7</v>
       </c>
@@ -589,7 +598,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>105.4</v>
       </c>
@@ -603,7 +612,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>82.3</v>
       </c>
@@ -617,7 +626,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>142</v>
       </c>
@@ -631,7 +640,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>115.5</v>
       </c>
@@ -645,7 +654,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>77.3</v>
       </c>
@@ -659,7 +668,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>105.1</v>
       </c>
@@ -673,7 +682,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>121.4</v>
       </c>
@@ -687,7 +696,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>61.9</v>
       </c>
@@ -701,7 +710,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>89</v>
       </c>
@@ -715,7 +724,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>49.9</v>
       </c>
@@ -729,7 +738,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>77.099999999999994</v>
       </c>
@@ -743,7 +752,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>66.7</v>
       </c>
@@ -757,7 +766,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>119.7</v>
       </c>
@@ -771,7 +780,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>80.400000000000006</v>
       </c>
@@ -785,7 +794,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>150.69999999999999</v>
       </c>
@@ -799,7 +808,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>112.2</v>
       </c>
@@ -813,7 +822,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>78.400000000000006</v>
       </c>
@@ -827,7 +836,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>116.5</v>
       </c>
@@ -841,7 +850,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>124</v>
       </c>
@@ -855,7 +864,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>96.2</v>
       </c>
@@ -869,7 +878,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>69.099999999999994</v>
       </c>
@@ -883,7 +892,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>96.7</v>
       </c>
@@ -897,7 +906,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>78.900000000000006</v>
       </c>
@@ -911,7 +920,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>67.400000000000006</v>
       </c>
@@ -925,7 +934,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>109.7</v>
       </c>
@@ -939,7 +948,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>87.2</v>
       </c>
@@ -953,7 +962,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>191.5</v>
       </c>
@@ -967,7 +976,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>147.69999999999999</v>
       </c>
@@ -981,7 +990,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>131.30000000000001</v>
       </c>
@@ -995,7 +1004,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>139.9</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>140.80000000000001</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>125.5</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>89.3</v>
       </c>
@@ -1051,7 +1060,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>61.9</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>101.8</v>
       </c>
@@ -1079,7 +1088,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>91.8</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>98.3</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>84.2</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>145.69999999999999</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>108.1</v>
       </c>
@@ -1149,7 +1158,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>89.6</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>129.6</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>124.8</v>
       </c>
@@ -1191,7 +1200,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>75.7</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>104.1</v>
       </c>
@@ -1219,7 +1228,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>80.3</v>
       </c>
@@ -1233,7 +1242,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>96</v>
       </c>
@@ -1247,7 +1256,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>94.1</v>
       </c>
@@ -1267,24 +1276,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
